--- a/templates/laporan_tdi.xlsx
+++ b/templates/laporan_tdi.xlsx
@@ -1,17 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\simppadu\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3150" windowWidth="20490" windowHeight="7890"/>
+    <workbookView xWindow="0" yWindow="4050" windowWidth="20490" windowHeight="7890"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>PEMERINTAH KABUPATEN BIREUEN</t>
   </si>
@@ -58,13 +63,22 @@
   </si>
   <si>
     <t>PR</t>
+  </si>
+  <si>
+    <t>Jenis Industri (KBLI)</t>
+  </si>
+  <si>
+    <t>Komoditi Industri</t>
+  </si>
+  <si>
+    <t>Modal Investasi</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,7 +112,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -121,11 +135,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
@@ -146,6 +186,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -169,16 +215,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1924049</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>190499</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>47624</xdr:rowOff>
+      <xdr:rowOff>66674</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>962024</xdr:colOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1209674</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>41137</xdr:rowOff>
+      <xdr:rowOff>60187</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -189,7 +235,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" r:link="rId2" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -200,7 +246,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="2352674" y="47624"/>
+          <a:off x="5495924" y="66674"/>
           <a:ext cx="1019175" cy="1022213"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -472,31 +518,33 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:J8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:M8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.42578125" customWidth="1"/>
     <col min="2" max="2" width="29.7109375" customWidth="1"/>
     <col min="3" max="4" width="21.7109375" customWidth="1"/>
     <col min="5" max="5" width="27.140625" customWidth="1"/>
-    <col min="6" max="6" width="38.140625" customWidth="1"/>
-    <col min="7" max="7" width="22.28515625" customWidth="1"/>
+    <col min="6" max="6" width="41" customWidth="1"/>
+    <col min="7" max="8" width="38.140625" customWidth="1"/>
+    <col min="9" max="9" width="23" customWidth="1"/>
+    <col min="10" max="10" width="18.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -508,8 +556,11 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
     </row>
-    <row r="3" spans="1:10" ht="21">
+    <row r="3" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -521,8 +572,11 @@
       <c r="G3" s="5"/>
       <c r="H3" s="5"/>
       <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>2</v>
       </c>
@@ -534,8 +588,11 @@
       <c r="G4" s="6"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -545,8 +602,11 @@
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>3</v>
       </c>
@@ -565,45 +625,60 @@
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="7" t="s">
+      <c r="G7" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J7" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="7" t="s">
+      <c r="K7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="I7" s="7"/>
-      <c r="J7" s="2"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="2"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="7"/>
       <c r="C8" s="7"/>
       <c r="D8" s="7"/>
       <c r="E8" s="7"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="3" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="7"/>
+      <c r="K8" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="L8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="1"/>
+      <c r="M8" s="1"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A4:I4"/>
-    <mergeCell ref="A5:I5"/>
-    <mergeCell ref="G7:G8"/>
+  <mergeCells count="15">
+    <mergeCell ref="A2:L2"/>
+    <mergeCell ref="A3:L3"/>
+    <mergeCell ref="A4:L4"/>
+    <mergeCell ref="A5:L5"/>
+    <mergeCell ref="J7:J8"/>
     <mergeCell ref="E7:E8"/>
     <mergeCell ref="F7:F8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="A7:A8"/>
-    <mergeCell ref="H7:I7"/>
+    <mergeCell ref="K7:L7"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
